--- a/status_impressoras.xlsx
+++ b/status_impressoras.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.110: 'NoneType' object has no attribute 'text'</t>
+          <t>89.29%</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.125: 'NoneType' object has no attribute 'text'</t>
+          <t>28.57%</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.249.70: 'NoneType' object has no attribute 'text'</t>
+          <t>58.93%</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.116: 'NoneType' object has no attribute 'text'</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.103: 'NoneType' object has no attribute 'text'</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.124: 'NoneType' object has no attribute 'text'</t>
+          <t xml:space="preserve">Erro inesperado ao processar IP 10.0.248.124: Message: unknown error: net::ERR_CONNECTION_TIMED_OUT
+  (Session info: chrome=131.0.6778.87)
+Stacktrace:
+	GetHandleVerifier [0x00007FF703016CF5+28821]
+	(No symbol) [0x00007FF702F83880]
+	(No symbol) [0x00007FF702E2578A]
+	(No symbol) [0x00007FF702E22E88]
+	(No symbol) [0x00007FF702E13BF9]
+	(No symbol) [0x00007FF702E1594F]
+	(No symbol) [0x00007FF702E13EBF]
+	(No symbol) [0x00007FF702E1371B]
+	(No symbol) [0x00007FF702E1365A]
+	(No symbol) [0x00007FF702E11274]
+	(No symbol) [0x00007FF702E11B3C]
+	(No symbol) [0x00007FF702E2885A]
+	(No symbol) [0x00007FF702EC01FE]
+	(No symbol) [0x00007FF702E9F2FA]
+	(No symbol) [0x00007FF702EBF412]
+	(No symbol) [0x00007FF702E9F0A3]
+	(No symbol) [0x00007FF702E6A778]
+	(No symbol) [0x00007FF702E6B8E1]
+	GetHandleVerifier [0x00007FF70334FCED+3408013]
+	GetHandleVerifier [0x00007FF70336745F+3504127]
+	GetHandleVerifier [0x00007FF70335B63D+3455453]
+	GetHandleVerifier [0x00007FF7030DBDFB+835995]
+	(No symbol) [0x00007FF702F8EB9F]
+	(No symbol) [0x00007FF702F8A854]
+	(No symbol) [0x00007FF702F8A9ED]
+	(No symbol) [0x00007FF702F7A1D9]
+	BaseThreadInitThunk [0x00007FFDA30A7374+20]
+	RtlUserThreadStart [0x00007FFDA327CC91+33]
+</t>
         </is>
       </c>
     </row>
@@ -513,7 +544,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.114: 'NoneType' object has no attribute 'text'</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -525,7 +556,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.104: 'NoneType' object has no attribute 'text'</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -537,7 +568,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.113: 'NoneType' object has no attribute 'text'</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -549,7 +580,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.122: 'NoneType' object has no attribute 'text'</t>
+          <t>75%</t>
         </is>
       </c>
     </row>
@@ -561,7 +592,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.115: 'NoneType' object has no attribute 'text'</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -573,7 +604,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.106: 'NoneType' object has no attribute 'text'</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -585,7 +616,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Erro ao conectar ao IP 10.0.248.105: HTTPConnectionPool(host='10.0.248.105', port=80): Max retries exceeded with url: / (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPConnection object at 0x000001B1FD423690&gt;, 'Connection to 10.0.248.105 timed out. (connect timeout=5)'))</t>
+          <t xml:space="preserve">Erro inesperado ao processar IP 10.0.248.105: Message: unknown error: net::ERR_CONNECTION_TIMED_OUT
+  (Session info: chrome=131.0.6778.87)
+Stacktrace:
+	GetHandleVerifier [0x00007FF703016CF5+28821]
+	(No symbol) [0x00007FF702F83880]
+	(No symbol) [0x00007FF702E2578A]
+	(No symbol) [0x00007FF702E22E88]
+	(No symbol) [0x00007FF702E13BF9]
+	(No symbol) [0x00007FF702E1594F]
+	(No symbol) [0x00007FF702E13EBF]
+	(No symbol) [0x00007FF702E1371B]
+	(No symbol) [0x00007FF702E1365A]
+	(No symbol) [0x00007FF702E11274]
+	(No symbol) [0x00007FF702E11B3C]
+	(No symbol) [0x00007FF702E2885A]
+	(No symbol) [0x00007FF702EC01FE]
+	(No symbol) [0x00007FF702E9F2FA]
+	(No symbol) [0x00007FF702EBF412]
+	(No symbol) [0x00007FF702E9F0A3]
+	(No symbol) [0x00007FF702E6A778]
+	(No symbol) [0x00007FF702E6B8E1]
+	GetHandleVerifier [0x00007FF70334FCED+3408013]
+	GetHandleVerifier [0x00007FF70336745F+3504127]
+	GetHandleVerifier [0x00007FF70335B63D+3455453]
+	GetHandleVerifier [0x00007FF7030DBDFB+835995]
+	(No symbol) [0x00007FF702F8EB9F]
+	(No symbol) [0x00007FF702F8A854]
+	(No symbol) [0x00007FF702F8A9ED]
+	(No symbol) [0x00007FF702F7A1D9]
+	BaseThreadInitThunk [0x00007FFDA30A7374+20]
+	RtlUserThreadStart [0x00007FFDA327CC91+33]
+</t>
         </is>
       </c>
     </row>
@@ -597,7 +659,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Erro ao conectar ao IP 10.0.248.109: HTTPConnectionPool(host='10.0.248.109', port=80): Max retries exceeded with url: / (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPConnection object at 0x000001B1FD0F1F90&gt;, 'Connection to 10.0.248.109 timed out. (connect timeout=5)'))</t>
+          <t xml:space="preserve">Erro inesperado ao processar IP 10.0.248.109: Message: unknown error: net::ERR_CONNECTION_TIMED_OUT
+  (Session info: chrome=131.0.6778.87)
+Stacktrace:
+	GetHandleVerifier [0x00007FF703016CF5+28821]
+	(No symbol) [0x00007FF702F83880]
+	(No symbol) [0x00007FF702E2578A]
+	(No symbol) [0x00007FF702E22E88]
+	(No symbol) [0x00007FF702E13BF9]
+	(No symbol) [0x00007FF702E1594F]
+	(No symbol) [0x00007FF702E13EBF]
+	(No symbol) [0x00007FF702E1371B]
+	(No symbol) [0x00007FF702E1365A]
+	(No symbol) [0x00007FF702E11274]
+	(No symbol) [0x00007FF702E11B3C]
+	(No symbol) [0x00007FF702E2885A]
+	(No symbol) [0x00007FF702EC01FE]
+	(No symbol) [0x00007FF702E9F2FA]
+	(No symbol) [0x00007FF702EBF412]
+	(No symbol) [0x00007FF702E9F0A3]
+	(No symbol) [0x00007FF702E6A778]
+	(No symbol) [0x00007FF702E6B8E1]
+	GetHandleVerifier [0x00007FF70334FCED+3408013]
+	GetHandleVerifier [0x00007FF70336745F+3504127]
+	GetHandleVerifier [0x00007FF70335B63D+3455453]
+	GetHandleVerifier [0x00007FF7030DBDFB+835995]
+	(No symbol) [0x00007FF702F8EB9F]
+	(No symbol) [0x00007FF702F8A854]
+	(No symbol) [0x00007FF702F8A9ED]
+	(No symbol) [0x00007FF702F7A1D9]
+	BaseThreadInitThunk [0x00007FFDA30A7374+20]
+	RtlUserThreadStart [0x00007FFDA327CC91+33]
+</t>
         </is>
       </c>
     </row>
@@ -609,7 +702,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.102: 'NoneType' object has no attribute 'text'</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -621,7 +714,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Erro inesperado ao processar IP 10.0.248.101: 'NoneType' object has no attribute 'text'</t>
+          <t>75%</t>
         </is>
       </c>
     </row>
@@ -629,11 +722,6 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>VILA PRUDENTE (10.0.250.17)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Erro inesperado ao processar IP 10.0.250.17: 'NoneType' object has no attribute 'text'</t>
         </is>
       </c>
     </row>

--- a/status_impressoras.xlsx
+++ b/status_impressoras.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>89.29%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>58.93%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>25%</t>
         </is>
       </c>
     </row>
@@ -501,38 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erro inesperado ao processar IP 10.0.248.124: Message: unknown error: net::ERR_CONNECTION_TIMED_OUT
-  (Session info: chrome=131.0.6778.87)
-Stacktrace:
-	GetHandleVerifier [0x00007FF703016CF5+28821]
-	(No symbol) [0x00007FF702F83880]
-	(No symbol) [0x00007FF702E2578A]
-	(No symbol) [0x00007FF702E22E88]
-	(No symbol) [0x00007FF702E13BF9]
-	(No symbol) [0x00007FF702E1594F]
-	(No symbol) [0x00007FF702E13EBF]
-	(No symbol) [0x00007FF702E1371B]
-	(No symbol) [0x00007FF702E1365A]
-	(No symbol) [0x00007FF702E11274]
-	(No symbol) [0x00007FF702E11B3C]
-	(No symbol) [0x00007FF702E2885A]
-	(No symbol) [0x00007FF702EC01FE]
-	(No symbol) [0x00007FF702E9F2FA]
-	(No symbol) [0x00007FF702EBF412]
-	(No symbol) [0x00007FF702E9F0A3]
-	(No symbol) [0x00007FF702E6A778]
-	(No symbol) [0x00007FF702E6B8E1]
-	GetHandleVerifier [0x00007FF70334FCED+3408013]
-	GetHandleVerifier [0x00007FF70336745F+3504127]
-	GetHandleVerifier [0x00007FF70335B63D+3455453]
-	GetHandleVerifier [0x00007FF7030DBDFB+835995]
-	(No symbol) [0x00007FF702F8EB9F]
-	(No symbol) [0x00007FF702F8A854]
-	(No symbol) [0x00007FF702F8A9ED]
-	(No symbol) [0x00007FF702F7A1D9]
-	BaseThreadInitThunk [0x00007FFDA30A7374+20]
-	RtlUserThreadStart [0x00007FFDA327CC91+33]
-</t>
+          <t>75%</t>
         </is>
       </c>
     </row>
@@ -568,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -616,38 +585,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erro inesperado ao processar IP 10.0.248.105: Message: unknown error: net::ERR_CONNECTION_TIMED_OUT
-  (Session info: chrome=131.0.6778.87)
-Stacktrace:
-	GetHandleVerifier [0x00007FF703016CF5+28821]
-	(No symbol) [0x00007FF702F83880]
-	(No symbol) [0x00007FF702E2578A]
-	(No symbol) [0x00007FF702E22E88]
-	(No symbol) [0x00007FF702E13BF9]
-	(No symbol) [0x00007FF702E1594F]
-	(No symbol) [0x00007FF702E13EBF]
-	(No symbol) [0x00007FF702E1371B]
-	(No symbol) [0x00007FF702E1365A]
-	(No symbol) [0x00007FF702E11274]
-	(No symbol) [0x00007FF702E11B3C]
-	(No symbol) [0x00007FF702E2885A]
-	(No symbol) [0x00007FF702EC01FE]
-	(No symbol) [0x00007FF702E9F2FA]
-	(No symbol) [0x00007FF702EBF412]
-	(No symbol) [0x00007FF702E9F0A3]
-	(No symbol) [0x00007FF702E6A778]
-	(No symbol) [0x00007FF702E6B8E1]
-	GetHandleVerifier [0x00007FF70334FCED+3408013]
-	GetHandleVerifier [0x00007FF70336745F+3504127]
-	GetHandleVerifier [0x00007FF70335B63D+3455453]
-	GetHandleVerifier [0x00007FF7030DBDFB+835995]
-	(No symbol) [0x00007FF702F8EB9F]
-	(No symbol) [0x00007FF702F8A854]
-	(No symbol) [0x00007FF702F8A9ED]
-	(No symbol) [0x00007FF702F7A1D9]
-	BaseThreadInitThunk [0x00007FFDA30A7374+20]
-	RtlUserThreadStart [0x00007FFDA327CC91+33]
-</t>
+          <t>46%</t>
         </is>
       </c>
     </row>
@@ -659,38 +597,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erro inesperado ao processar IP 10.0.248.109: Message: unknown error: net::ERR_CONNECTION_TIMED_OUT
-  (Session info: chrome=131.0.6778.87)
-Stacktrace:
-	GetHandleVerifier [0x00007FF703016CF5+28821]
-	(No symbol) [0x00007FF702F83880]
-	(No symbol) [0x00007FF702E2578A]
-	(No symbol) [0x00007FF702E22E88]
-	(No symbol) [0x00007FF702E13BF9]
-	(No symbol) [0x00007FF702E1594F]
-	(No symbol) [0x00007FF702E13EBF]
-	(No symbol) [0x00007FF702E1371B]
-	(No symbol) [0x00007FF702E1365A]
-	(No symbol) [0x00007FF702E11274]
-	(No symbol) [0x00007FF702E11B3C]
-	(No symbol) [0x00007FF702E2885A]
-	(No symbol) [0x00007FF702EC01FE]
-	(No symbol) [0x00007FF702E9F2FA]
-	(No symbol) [0x00007FF702EBF412]
-	(No symbol) [0x00007FF702E9F0A3]
-	(No symbol) [0x00007FF702E6A778]
-	(No symbol) [0x00007FF702E6B8E1]
-	GetHandleVerifier [0x00007FF70334FCED+3408013]
-	GetHandleVerifier [0x00007FF70336745F+3504127]
-	GetHandleVerifier [0x00007FF70335B63D+3455453]
-	GetHandleVerifier [0x00007FF7030DBDFB+835995]
-	(No symbol) [0x00007FF702F8EB9F]
-	(No symbol) [0x00007FF702F8A854]
-	(No symbol) [0x00007FF702F8A9ED]
-	(No symbol) [0x00007FF702F7A1D9]
-	BaseThreadInitThunk [0x00007FFDA30A7374+20]
-	RtlUserThreadStart [0x00007FFDA327CC91+33]
-</t>
+          <t>33%</t>
         </is>
       </c>
     </row>
@@ -702,7 +609,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>52%</t>
         </is>
       </c>
     </row>
